--- a/Methanol/AVE_MOL_FRAC.xlsx
+++ b/Methanol/AVE_MOL_FRAC.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool Fire Experiments\Methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBAACD1-E431-49C8-9E00-6DE49330052D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC3EB5B-3D05-4013-A8F2-56ED85B302BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9300" xr2:uid="{4801D63F-1BAE-439D-9F61-EFAFF6E56F69}"/>
+    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{1DBE08AE-4620-48C1-80DC-31AA9E9F79D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mol Fractions" sheetId="1" r:id="rId1"/>
-    <sheet name="Uncertainties" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mole_Fractions" sheetId="4" r:id="rId1"/>
+    <sheet name="Uncertainties" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,60 +35,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
-  <si>
-    <t>Carbon Dioxide (Q)</t>
-  </si>
-  <si>
-    <t>Hydrogen (MS)</t>
-  </si>
-  <si>
-    <t>Water (Q)</t>
-  </si>
-  <si>
-    <t>Argon (MS)</t>
-  </si>
-  <si>
-    <t>Oxygen (MS)</t>
-  </si>
-  <si>
-    <t>Propane (Q)</t>
-  </si>
-  <si>
-    <t>Methanol (MS)</t>
-  </si>
-  <si>
-    <t>Nitrogen (MS)</t>
-  </si>
-  <si>
-    <t>Ethanol (Q)</t>
-  </si>
-  <si>
-    <t>Methane (MS)</t>
-  </si>
-  <si>
-    <t>Acetone(Q)</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide (Q)</t>
-  </si>
-  <si>
-    <t>Acetylene</t>
-  </si>
-  <si>
-    <t>Ethylene_1</t>
-  </si>
-  <si>
-    <t>Benzene</t>
-  </si>
-  <si>
-    <t>Ethane</t>
-  </si>
-  <si>
-    <t>Ethylene_2</t>
-  </si>
-  <si>
-    <t>Position (cm)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+  <si>
+    <t>Position_cm</t>
+  </si>
+  <si>
+    <t>ave_X_CO2</t>
+  </si>
+  <si>
+    <t>ave_X_H2</t>
+  </si>
+  <si>
+    <t>ave_X_H2O</t>
+  </si>
+  <si>
+    <t>ave_X_Ar</t>
+  </si>
+  <si>
+    <t>ave_X_O2</t>
+  </si>
+  <si>
+    <t>ave_X_Propane</t>
+  </si>
+  <si>
+    <t>ave_X_Methanol</t>
+  </si>
+  <si>
+    <t>ave_X_N2</t>
+  </si>
+  <si>
+    <t>ave_X_Ethanol</t>
+  </si>
+  <si>
+    <t>ave_X_CH4</t>
+  </si>
+  <si>
+    <t>ave_X_Acetone</t>
+  </si>
+  <si>
+    <t>ave_X_CO</t>
+  </si>
+  <si>
+    <t>ave_X_Acetylene</t>
+  </si>
+  <si>
+    <t>ave_X_Ethylene_1</t>
+  </si>
+  <si>
+    <t>ave_X_Benzene</t>
+  </si>
+  <si>
+    <t>ave_X_Ethane</t>
+  </si>
+  <si>
+    <t>ave_x_Ethylene_2</t>
+  </si>
+  <si>
+    <t>u_ave_X_CO2</t>
+  </si>
+  <si>
+    <t>u_ave_X_H2</t>
+  </si>
+  <si>
+    <t>u_ave_X_H2O</t>
+  </si>
+  <si>
+    <t>u_ave_X_Ar</t>
+  </si>
+  <si>
+    <t>u_ave_X_O2</t>
+  </si>
+  <si>
+    <t>u_ave_X_Propane</t>
+  </si>
+  <si>
+    <t>u_ave_X_Methanol</t>
+  </si>
+  <si>
+    <t>u_ave_X_N2</t>
+  </si>
+  <si>
+    <t>u_ave_X_Ethanol</t>
+  </si>
+  <si>
+    <t>u_ave_X_CH4</t>
+  </si>
+  <si>
+    <t>u_ave_X_Acetone</t>
+  </si>
+  <si>
+    <t>u_ave_X_CO</t>
+  </si>
+  <si>
+    <t>u_ave_X_Acetylene</t>
+  </si>
+  <si>
+    <t>u_ave_X_Ethylene_1</t>
+  </si>
+  <si>
+    <t>u_ave_X_Benzene</t>
+  </si>
+  <si>
+    <t>u_ave_X_Ethane</t>
+  </si>
+  <si>
+    <t>u_ave_x_Ethylene_2</t>
   </si>
 </sst>
 </file>
@@ -121,11 +175,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,74 +490,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F565A2BC-1539-42D6-927E-E34A82B2E5E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E030B6-0813-4C31-9DAC-CC6512F71984}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -514,40 +574,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.5153770957622442E-2</v>
+        <v>4.2680347958948636E-2</v>
       </c>
       <c r="C2">
-        <v>5.2881861021309901E-2</v>
+        <v>5.2306770457658497E-2</v>
       </c>
       <c r="D2">
-        <v>0.16064633194348957</v>
+        <v>0.17617624529501</v>
       </c>
       <c r="E2">
-        <v>4.4298324623629056E-3</v>
+        <v>4.1597011482225445E-3</v>
       </c>
       <c r="F2">
-        <v>1.9391982046985501E-2</v>
+        <v>1.6634223086812373E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.24289607512684272</v>
+        <v>0.26452162094253689</v>
       </c>
       <c r="I2">
-        <v>0.41706666337739423</v>
+        <v>0.38558781547702015</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.1934059305542431E-3</v>
+        <v>1.1071526900658241E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.6340077133438471E-2</v>
+        <v>5.682612294372507E-2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -570,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.7167470193741984E-2</v>
+        <v>4.6709147305572865E-2</v>
       </c>
       <c r="C3">
-        <v>5.4353071701223984E-2</v>
+        <v>5.711698531637683E-2</v>
       </c>
       <c r="D3">
-        <v>0.17830938400185592</v>
+        <v>0.18556112255699331</v>
       </c>
       <c r="E3">
-        <v>5.0848409532649481E-3</v>
+        <v>4.5188486709782146E-3</v>
       </c>
       <c r="F3">
-        <v>2.0276691577875421E-2</v>
+        <v>1.5536385800949423E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.19041345272930676</v>
+        <v>0.20710693156941878</v>
       </c>
       <c r="I3">
-        <v>0.44153147669807047</v>
+        <v>0.41549049341626465</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.239409134848555E-3</v>
+        <v>1.255897458550788E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>6.1624203009811959E-2</v>
+        <v>6.6704187904895046E-2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -626,40 +686,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.9135773636930476E-2</v>
+        <v>5.3799712849583833E-2</v>
       </c>
       <c r="C4">
-        <v>4.6731296201654927E-2</v>
+        <v>4.4226799310778372E-2</v>
       </c>
       <c r="D4">
-        <v>0.17404961950816747</v>
+        <v>0.17929081710948783</v>
       </c>
       <c r="E4">
-        <v>5.6442391746754535E-3</v>
+        <v>5.6168514505510947E-3</v>
       </c>
       <c r="F4">
-        <v>3.0088565252378668E-2</v>
+        <v>3.2194636666934714E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.10652646270388855</v>
+        <v>0.11384591941324333</v>
       </c>
       <c r="I4">
-        <v>0.51794578276721059</v>
+        <v>0.5128895650432167</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.0465237977106505E-3</v>
+        <v>9.3997040661794086E-4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.8831736957383085E-2</v>
+        <v>5.7195727749586124E-2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -682,40 +742,40 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5.7733098076103669E-2</v>
+        <v>5.458596172757773E-2</v>
       </c>
       <c r="C5">
-        <v>3.1912857871494754E-2</v>
+        <v>3.1321188504302738E-2</v>
       </c>
       <c r="D5">
-        <v>0.16268236192379168</v>
+        <v>0.17534271267994583</v>
       </c>
       <c r="E5">
-        <v>6.4408214803635703E-3</v>
+        <v>6.183261686577902E-3</v>
       </c>
       <c r="F5">
-        <v>4.8954576021487534E-2</v>
+        <v>4.796213130558568E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8.1287111421195754E-2</v>
+        <v>7.9824568400704635E-2</v>
       </c>
       <c r="I5">
-        <v>0.56843060688485825</v>
+        <v>0.56232560472978643</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.0130775616480815E-4</v>
+        <v>6.2506733059862637E-4</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.185725856454009E-2</v>
+        <v>4.1829503634920259E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -738,40 +798,40 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.8740489458579279E-2</v>
+        <v>5.7124234400030928E-2</v>
       </c>
       <c r="C6">
-        <v>1.657789882545796E-2</v>
+        <v>1.6132368441888627E-2</v>
       </c>
       <c r="D6">
-        <v>0.13715812834522634</v>
+        <v>0.15184249185903687</v>
       </c>
       <c r="E6">
-        <v>6.7174334215405153E-3</v>
+        <v>6.6741714994827082E-3</v>
       </c>
       <c r="F6">
-        <v>7.9151918068567612E-2</v>
+        <v>7.7911940482555245E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5.771416486796728E-2</v>
+        <v>5.6133819407567134E-2</v>
       </c>
       <c r="I6">
-        <v>0.61922043057367948</v>
+        <v>0.6104085747126563</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.0537745494769356E-4</v>
+        <v>3.2900362247213565E-4</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.4314158984033742E-2</v>
+        <v>2.3443395574309835E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -794,40 +854,40 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>5.0952085370951222E-2</v>
+        <v>4.7205770460151786E-2</v>
       </c>
       <c r="C7">
-        <v>9.8707963375781072E-3</v>
+        <v>9.6149365309482187E-3</v>
       </c>
       <c r="D7">
-        <v>0.12766292968777976</v>
+        <v>0.14222185522812991</v>
       </c>
       <c r="E7">
-        <v>7.0041216585382936E-3</v>
+        <v>6.9553066329829617E-3</v>
       </c>
       <c r="F7">
-        <v>9.5697596020603723E-2</v>
+        <v>9.3179676174536694E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.9875115706541746E-2</v>
+        <v>4.8573776890741854E-2</v>
       </c>
       <c r="I7">
-        <v>0.6415267518739014</v>
+        <v>0.63593155182927619</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.6928545603612528E-4</v>
+        <v>1.9700935861984416E-4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.7141317888069656E-2</v>
+        <v>1.6120116894612683E-2</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -850,19 +910,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>4.1936463246972713E-2</v>
+        <v>3.5413326829543734E-2</v>
       </c>
       <c r="C8">
-        <v>1.3732419231417339E-3</v>
+        <v>1.2702061934542709E-3</v>
       </c>
       <c r="D8">
-        <v>3.9329000000000003E-2</v>
+        <v>0.10076493679103223</v>
       </c>
       <c r="E8">
-        <v>8.203456559494525E-3</v>
+        <v>7.8397385773636332E-3</v>
       </c>
       <c r="F8">
-        <v>0.13824655622501858</v>
+        <v>0.13043597704001031</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -871,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.76336384131489243</v>
+        <v>0.72106014667108698</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -883,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.9472099705536766E-3</v>
+        <v>3.2156678975088131E-3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -906,19 +966,19 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>2.6095564051764039E-2</v>
+        <v>1.9416067252072788E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8.2236307223602145E-2</v>
       </c>
       <c r="E9">
-        <v>8.3901810697339999E-3</v>
+        <v>7.9371019225934029E-3</v>
       </c>
       <c r="F9">
-        <v>0.17206956402545776</v>
+        <v>0.15639822502543888</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -927,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.79133688518434142</v>
+        <v>0.73365385065491973</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -939,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.107805668702804E-3</v>
+        <v>3.5844792137312273E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -962,7 +1022,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.4107047792900116E-2</v>
+        <v>8.7778865811058877E-3</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -971,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.2680393709564474E-3</v>
+        <v>8.5192521259760661E-3</v>
       </c>
       <c r="F10">
-        <v>0.19085057668376779</v>
+        <v>0.19168701399318541</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -983,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.78677433615237569</v>
+        <v>0.79101584729973262</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1019,74 +1079,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C110B98-945A-4CA1-A7F0-8BB6F26A8E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A110FC2-A833-4CB2-AED5-1D1D8AF149A5}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1094,40 +1166,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.8006607242873341E-3</v>
+        <v>4.8310174353894753E-3</v>
       </c>
       <c r="C2">
-        <v>7.4797405918322667E-3</v>
+        <v>3.3421037253619119E-3</v>
       </c>
       <c r="D2">
-        <v>6.0510886674842876E-2</v>
+        <v>2.439611403602775E-2</v>
       </c>
       <c r="E2">
-        <v>5.4432693013958409E-4</v>
+        <v>2.4682318130655594E-4</v>
       </c>
       <c r="F2">
-        <v>1.9302435197509269E-3</v>
+        <v>1.1070461515408137E-3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.6939904216552201E-2</v>
+        <v>6.4292603636019241E-2</v>
       </c>
       <c r="I2">
-        <v>4.4500541005984572E-2</v>
+        <v>2.3026608368756349E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>6.9387016628082198E-4</v>
+        <v>7.0753987791697672E-5</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.8725311106159221E-3</v>
+        <v>2.7324692675449263E-3</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1150,40 +1222,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4150080199340307E-3</v>
+        <v>4.9364299934460693E-3</v>
       </c>
       <c r="C3">
-        <v>5.3240585045051785E-3</v>
+        <v>7.0911569653733277E-3</v>
       </c>
       <c r="D3">
-        <v>4.8040054932758557E-2</v>
+        <v>3.3440620264199777E-2</v>
       </c>
       <c r="E3">
-        <v>4.3020761111444892E-4</v>
+        <v>6.440880939605594E-4</v>
       </c>
       <c r="F3">
-        <v>1.3653548439528282E-3</v>
+        <v>9.1724286231922893E-3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.5275569710229264E-2</v>
+        <v>0.1059479410507609</v>
       </c>
       <c r="I3">
-        <v>3.203415670948899E-2</v>
+        <v>5.7690868691264809E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5.0171335059838473E-4</v>
+        <v>1.7401263847434753E-4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.3738216012279806E-3</v>
+        <v>7.6334437760946774E-3</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1206,40 +1278,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4.8865315284788323E-3</v>
+        <v>5.3228064615085972E-3</v>
       </c>
       <c r="C4">
-        <v>5.4207914096690221E-3</v>
+        <v>5.8679807045944081E-3</v>
       </c>
       <c r="D4">
-        <v>5.6789420715384786E-2</v>
+        <v>3.7132339318617556E-2</v>
       </c>
       <c r="E4">
-        <v>5.5886154528703299E-4</v>
+        <v>4.0909401454713318E-4</v>
       </c>
       <c r="F4">
-        <v>2.3219994300350869E-3</v>
+        <v>8.1205553152418827E-3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.9029247019485997E-2</v>
+        <v>2.9191003333581739E-2</v>
       </c>
       <c r="I4">
-        <v>4.2750108701585292E-2</v>
+        <v>3.2868624771411226E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.1363061789499059E-4</v>
+        <v>1.1862375952486377E-4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.7843451798264608E-3</v>
+        <v>6.4366396921169472E-3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1262,40 +1334,40 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4.5726429456715177E-3</v>
+        <v>3.068605466256924E-3</v>
       </c>
       <c r="C5">
-        <v>3.6281995513203955E-3</v>
+        <v>3.768759267439538E-3</v>
       </c>
       <c r="D5">
-        <v>5.2537465510076688E-2</v>
+        <v>2.8947395645232632E-2</v>
       </c>
       <c r="E5">
-        <v>6.1984000014030289E-4</v>
+        <v>3.4161535056592408E-4</v>
       </c>
       <c r="F5">
-        <v>3.568575715820194E-3</v>
+        <v>5.002404072074482E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.4505778120702076E-2</v>
+        <v>1.5477637914579971E-2</v>
       </c>
       <c r="I5">
-        <v>4.4709854305537929E-2</v>
+        <v>2.790464763901826E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.1128564859007253E-4</v>
+        <v>1.3522261488842701E-4</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.2488411909787096E-3</v>
+        <v>3.3621937477942543E-3</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1318,40 +1390,40 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>3.8542315560161702E-3</v>
+        <v>3.3337296797277542E-3</v>
       </c>
       <c r="C6">
-        <v>1.4939638876792776E-3</v>
+        <v>3.765402645939245E-3</v>
       </c>
       <c r="D6">
-        <v>3.5076779552258401E-2</v>
+        <v>2.4464985228312454E-2</v>
       </c>
       <c r="E6">
-        <v>5.0304653947209801E-4</v>
+        <v>3.15040238790704E-4</v>
       </c>
       <c r="F6">
-        <v>4.3290643812387113E-3</v>
+        <v>7.2571229446230989E-3</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.8438801770927923E-2</v>
+        <v>1.0170230242326092E-2</v>
       </c>
       <c r="I6">
-        <v>3.6889642935769962E-2</v>
+        <v>2.0608389942056909E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.0822381028394078E-4</v>
+        <v>7.3068261705847232E-5</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.4246624298788698E-3</v>
+        <v>5.0136933448699413E-3</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1374,40 +1446,40 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.0306172730877085E-3</v>
+        <v>3.4927949523472358E-3</v>
       </c>
       <c r="C7">
-        <v>8.7732274423859917E-4</v>
+        <v>9.2821860628292748E-4</v>
       </c>
       <c r="D7">
-        <v>3.2533323564613331E-2</v>
+        <v>2.6462289497700693E-2</v>
       </c>
       <c r="E7">
-        <v>5.1773015996905123E-4</v>
+        <v>2.6655205217490625E-4</v>
       </c>
       <c r="F7">
-        <v>5.1210938825108363E-3</v>
+        <v>7.769532604518745E-3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.8053440117036752E-2</v>
+        <v>8.8262735695188946E-3</v>
       </c>
       <c r="I7">
-        <v>3.7335663370727086E-2</v>
+        <v>1.8976334595994716E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.0220372708017298E-4</v>
+        <v>2.8817757791303973E-5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>9.7643018954995714E-4</v>
+        <v>2.0865683235802329E-3</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1430,19 +1502,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>2.3299626776821466E-3</v>
+        <v>2.1064421414858934E-3</v>
       </c>
       <c r="C8">
-        <v>1.1684197933442383E-4</v>
+        <v>7.9439246555608229E-5</v>
       </c>
       <c r="D8">
-        <v>1.38770971457E-2</v>
+        <v>1.4630717909722766E-2</v>
       </c>
       <c r="E8">
-        <v>5.6920488568150624E-4</v>
+        <v>3.0562545252001144E-4</v>
       </c>
       <c r="F8">
-        <v>6.4798437333334893E-3</v>
+        <v>3.7374184934738522E-3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1451,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.9837165167875443E-2</v>
+        <v>2.2784081150215831E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1463,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.7253456433484307E-4</v>
+        <v>2.065745362676039E-4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1486,19 +1558,19 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>1.5815455338105372E-3</v>
+        <v>8.3369342099632749E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.2231639728979685E-2</v>
       </c>
       <c r="E9">
-        <v>5.5867148813516559E-4</v>
+        <v>2.7309801207014219E-4</v>
       </c>
       <c r="F9">
-        <v>7.3377866359951712E-3</v>
+        <v>1.4222015397543999E-2</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1507,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.8342126951809559E-2</v>
+        <v>1.7906288585801549E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1519,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.8382578072849646E-4</v>
+        <v>4.9049626966034049E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1542,7 +1614,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.2042336185852682E-3</v>
+        <v>6.9840652254613846E-4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1551,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.5003755546683363E-4</v>
+        <v>2.9413621884273871E-4</v>
       </c>
       <c r="F10">
-        <v>8.1160779014322077E-3</v>
+        <v>4.4121984715622935E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1563,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.8012293774702562E-2</v>
+        <v>1.8996868135976317E-2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1599,7 +1671,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E27CF70-9ABD-4E01-BACE-E3C530E9A52B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9984FCB0-9D13-4C9D-89CD-559AE60AE57F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66C5E9A-80BA-4649-BA70-4B0799C97358}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E81EDFE-9AE1-4A5A-81B1-68DC7A07BD4E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Methanol/AVE_MOL_FRAC.xlsx
+++ b/Methanol/AVE_MOL_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC3EB5B-3D05-4013-A8F2-56ED85B302BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C388FC-4854-4E71-A2D7-2648239898E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{1DBE08AE-4620-48C1-80DC-31AA9E9F79D1}"/>
+    <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{1DBE08AE-4620-48C1-80DC-31AA9E9F79D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mole_Fractions" sheetId="4" r:id="rId1"/>
@@ -574,40 +574,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.2680347958948636E-2</v>
+        <v>4.2991134281015017E-2</v>
       </c>
       <c r="C2">
-        <v>5.2306770457658497E-2</v>
+        <v>5.2687653688164061E-2</v>
       </c>
       <c r="D2">
-        <v>0.17617624529501</v>
+        <v>0.17017739179451985</v>
       </c>
       <c r="E2">
-        <v>4.1597011482225445E-3</v>
+        <v>4.1899909251942504E-3</v>
       </c>
       <c r="F2">
-        <v>1.6634223086812373E-2</v>
+        <v>1.6755348833457046E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.26452162094253689</v>
+        <v>0.2664477931883405</v>
       </c>
       <c r="I2">
-        <v>0.38558781547702015</v>
+        <v>0.38839555779254614</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.1071526900658241E-3</v>
+        <v>1.1152146654002898E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.682612294372507E-2</v>
+        <v>5.7239914831362884E-2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.6709147305572865E-2</v>
+        <v>4.7105533212971111E-2</v>
       </c>
       <c r="C3">
-        <v>5.711698531637683E-2</v>
+        <v>5.7601694829577103E-2</v>
       </c>
       <c r="D3">
-        <v>0.18556112255699331</v>
+        <v>0.17864958355278759</v>
       </c>
       <c r="E3">
-        <v>4.5188486709782146E-3</v>
+        <v>4.5571967897979166E-3</v>
       </c>
       <c r="F3">
-        <v>1.5536385800949423E-2</v>
+        <v>1.5668231590021744E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.20710693156941878</v>
+        <v>0.20886449456797981</v>
       </c>
       <c r="I3">
-        <v>0.41549049341626465</v>
+        <v>0.41901645322817715</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.255897458550788E-3</v>
+        <v>1.2665553292768375E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>6.6704187904895046E-2</v>
+        <v>6.7270256899410616E-2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -686,40 +686,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.3799712849583833E-2</v>
+        <v>5.4355319981248137E-2</v>
       </c>
       <c r="C4">
-        <v>4.4226799310778372E-2</v>
+        <v>4.4683543850966831E-2</v>
       </c>
       <c r="D4">
-        <v>0.17929081710948783</v>
+        <v>0.17081508646179414</v>
       </c>
       <c r="E4">
-        <v>5.6168514505510947E-3</v>
+        <v>5.6748585022271952E-3</v>
       </c>
       <c r="F4">
-        <v>3.2194636666934714E-2</v>
+        <v>3.2527121150327791E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.11384591941324333</v>
+        <v>0.1150216432486795</v>
       </c>
       <c r="I4">
-        <v>0.5128895650432167</v>
+        <v>0.51818634238645145</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.3997040661794086E-4</v>
+        <v>9.496777867099215E-4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.7195727749586124E-2</v>
+        <v>5.778640663159517E-2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -742,40 +742,40 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5.458596172757773E-2</v>
+        <v>5.530500272438918E-2</v>
       </c>
       <c r="C5">
-        <v>3.1321188504302738E-2</v>
+        <v>3.1733771115118499E-2</v>
       </c>
       <c r="D5">
-        <v>0.17534271267994583</v>
+        <v>0.16447980252620104</v>
       </c>
       <c r="E5">
-        <v>6.183261686577902E-3</v>
+        <v>6.2647115411916541E-3</v>
       </c>
       <c r="F5">
-        <v>4.796213130558568E-2</v>
+        <v>4.8593918996261226E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.9824568400704635E-2</v>
+        <v>8.0876068372791585E-2</v>
       </c>
       <c r="I5">
-        <v>0.56232560472978643</v>
+        <v>0.56973291515467961</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.2506733059862637E-4</v>
+        <v>6.3330111493150991E-4</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.1829503634920259E-2</v>
+        <v>4.2380508454435709E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -798,40 +798,40 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.7124234400030928E-2</v>
+        <v>5.8493136514869419E-2</v>
       </c>
       <c r="C6">
-        <v>1.6132368441888627E-2</v>
+        <v>1.6518958013011932E-2</v>
       </c>
       <c r="D6">
-        <v>0.15184249185903687</v>
+        <v>0.13151758739765335</v>
       </c>
       <c r="E6">
-        <v>6.6741714994827082E-3</v>
+        <v>6.8341086535889115E-3</v>
       </c>
       <c r="F6">
-        <v>7.7911940482555245E-2</v>
+        <v>7.9778990802229763E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5.6133819407567134E-2</v>
+        <v>5.7478987616962664E-2</v>
       </c>
       <c r="I6">
-        <v>0.6104085747126563</v>
+        <v>0.62503615961800862</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.2900362247213565E-4</v>
+        <v>3.3688773259320514E-4</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.3443395574309835E-2</v>
+        <v>2.4005183651081865E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -854,40 +854,40 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>4.7205770460151786E-2</v>
+        <v>4.8485810960247566E-2</v>
       </c>
       <c r="C7">
-        <v>9.6149365309482187E-3</v>
+        <v>9.8756569480814033E-3</v>
       </c>
       <c r="D7">
-        <v>0.14222185522812991</v>
+        <v>0.11896218263509649</v>
       </c>
       <c r="E7">
-        <v>6.9553066329829617E-3</v>
+        <v>7.1439080284059729E-3</v>
       </c>
       <c r="F7">
-        <v>9.3179676174536694E-2</v>
+        <v>9.570635369990195E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.8573776890741854E-2</v>
+        <v>4.9890912509050457E-2</v>
       </c>
       <c r="I7">
-        <v>0.63593155182927619</v>
+        <v>0.65317559071891518</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.9700935861984416E-4</v>
+        <v>2.0235150123234887E-4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.6120116894612683E-2</v>
+        <v>1.6557232999068614E-2</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -910,19 +910,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>3.5413326829543734E-2</v>
+        <v>3.7247973455595683E-2</v>
       </c>
       <c r="C8">
-        <v>1.2702061934542709E-3</v>
+        <v>1.3360113497568138E-3</v>
       </c>
       <c r="D8">
-        <v>0.10076493679103223</v>
+        <v>5.4178560349053807E-2</v>
       </c>
       <c r="E8">
-        <v>7.8397385773636332E-3</v>
+        <v>8.2458893465167382E-3</v>
       </c>
       <c r="F8">
-        <v>0.13043597704001031</v>
+        <v>0.13719343098790102</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.72106014667108698</v>
+        <v>0.75841587355995421</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.2156678975088131E-3</v>
+        <v>3.3822609512217535E-3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -966,19 +966,19 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>1.9416067252072788E-2</v>
+        <v>2.0638815589149248E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.2236307223602145E-2</v>
+        <v>2.4439122314712191E-2</v>
       </c>
       <c r="E9">
-        <v>7.9371019225934029E-3</v>
+        <v>8.4369497059297218E-3</v>
       </c>
       <c r="F9">
-        <v>0.15639822502543888</v>
+        <v>0.16624757644603358</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.73365385065491973</v>
+        <v>0.77985651436799874</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.5844792137312273E-4</v>
+        <v>3.8102157617650261E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1166,40 +1166,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.8310174353894753E-3</v>
+        <v>4.9635969399905184E-3</v>
       </c>
       <c r="C2">
-        <v>3.3421037253619119E-3</v>
+        <v>3.5736470251230717E-3</v>
       </c>
       <c r="D2">
-        <v>2.439611403602775E-2</v>
+        <v>3.318361129256827E-2</v>
       </c>
       <c r="E2">
-        <v>2.4682318130655594E-4</v>
+        <v>2.6628297386068947E-4</v>
       </c>
       <c r="F2">
-        <v>1.1070461515408137E-3</v>
+        <v>1.1785143018201388E-3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.4292603636019241E-2</v>
+        <v>6.5044089423806906E-2</v>
       </c>
       <c r="I2">
-        <v>2.3026608368756349E-2</v>
+        <v>2.4821755068396741E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.0753987791697672E-5</v>
+        <v>7.5654277756062173E-5</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.7324692675449263E-3</v>
+        <v>3.0451248729793882E-3</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1222,40 +1222,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.9364299934460693E-3</v>
+        <v>5.1498005663855144E-3</v>
       </c>
       <c r="C3">
-        <v>7.0911569653733277E-3</v>
+        <v>7.3306580255081888E-3</v>
       </c>
       <c r="D3">
-        <v>3.3440620264199777E-2</v>
+        <v>4.5660057778498839E-2</v>
       </c>
       <c r="E3">
-        <v>6.440880939605594E-4</v>
+        <v>6.619482897150821E-4</v>
       </c>
       <c r="F3">
-        <v>9.1724286231922893E-3</v>
+        <v>9.2606484664577576E-3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1059479410507609</v>
+        <v>0.10700670696881012</v>
       </c>
       <c r="I3">
-        <v>5.7690868691264809E-2</v>
+        <v>5.9349700726157764E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.7401263847434753E-4</v>
+        <v>1.7903097983659527E-4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.6334437760946774E-3</v>
+        <v>7.9249342462066399E-3</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1278,40 +1278,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.3228064615085972E-3</v>
+        <v>5.6639850891925993E-3</v>
       </c>
       <c r="C4">
-        <v>5.8679807045944081E-3</v>
+        <v>6.106040734313257E-3</v>
       </c>
       <c r="D4">
-        <v>3.7132339318617556E-2</v>
+        <v>5.0845046829179633E-2</v>
       </c>
       <c r="E4">
-        <v>4.0909401454713318E-4</v>
+        <v>4.5307735997604195E-4</v>
       </c>
       <c r="F4">
-        <v>8.1205553152418827E-3</v>
+        <v>8.273099817114318E-3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.9191003333581739E-2</v>
+        <v>2.973141374048105E-2</v>
       </c>
       <c r="I4">
-        <v>3.2868624771411226E-2</v>
+        <v>3.7282592823268651E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.1862375952486377E-4</v>
+        <v>1.2380805205008835E-4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.4366396921169472E-3</v>
+        <v>6.7721698100393947E-3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1334,40 +1334,40 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3.068605466256924E-3</v>
+        <v>3.426606063129009E-3</v>
       </c>
       <c r="C5">
-        <v>3.768759267439538E-3</v>
+        <v>3.9068624479365955E-3</v>
       </c>
       <c r="D5">
-        <v>2.8947395645232632E-2</v>
+        <v>3.9171772089400411E-2</v>
       </c>
       <c r="E5">
-        <v>3.4161535056592408E-4</v>
+        <v>3.8265959683849224E-4</v>
       </c>
       <c r="F5">
-        <v>5.002404072074482E-3</v>
+        <v>5.2239895485269262E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.5477637914579971E-2</v>
+        <v>1.5822411060949775E-2</v>
       </c>
       <c r="I5">
-        <v>2.790464763901826E-2</v>
+        <v>3.1930982365498087E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.3522261488842701E-4</v>
+        <v>1.3799355067938145E-4</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.3621937477942543E-3</v>
+        <v>3.5809152087803182E-3</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1390,40 +1390,40 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>3.3337296797277542E-3</v>
+        <v>3.5649898138083156E-3</v>
       </c>
       <c r="C6">
-        <v>3.765402645939245E-3</v>
+        <v>3.8665453632038709E-3</v>
       </c>
       <c r="D6">
-        <v>2.4464985228312454E-2</v>
+        <v>3.2558451571439766E-2</v>
       </c>
       <c r="E6">
-        <v>3.15040238790704E-4</v>
+        <v>3.4421539167278333E-4</v>
       </c>
       <c r="F6">
-        <v>7.2571229446230989E-3</v>
+        <v>7.5620955064615606E-3</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.0170230242326092E-2</v>
+        <v>1.0462806245392928E-2</v>
       </c>
       <c r="I6">
-        <v>2.0608389942056909E-2</v>
+        <v>2.378914261118055E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.3068261705847232E-5</v>
+        <v>7.5053044913545581E-5</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.0136933448699413E-3</v>
+        <v>5.1511380788006825E-3</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1446,40 +1446,40 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.4927949523472358E-3</v>
+        <v>3.6750916901976392E-3</v>
       </c>
       <c r="C7">
-        <v>9.2821860628292748E-4</v>
+        <v>9.671290416705025E-4</v>
       </c>
       <c r="D7">
-        <v>2.6462289497700693E-2</v>
+        <v>3.5483994594915136E-2</v>
       </c>
       <c r="E7">
-        <v>2.6655205217490625E-4</v>
+        <v>2.979338529120986E-4</v>
       </c>
       <c r="F7">
-        <v>7.769532604518745E-3</v>
+        <v>8.1340163671305785E-3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.8262735695188946E-3</v>
+        <v>9.1026785395913624E-3</v>
       </c>
       <c r="I7">
-        <v>1.8976334595994716E-2</v>
+        <v>2.2256116775370469E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.8817757791303973E-5</v>
+        <v>2.9785750958574486E-5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.0865683235802329E-3</v>
+        <v>2.1603844424242743E-3</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>2.1064421414858934E-3</v>
+        <v>2.2129217087447227E-3</v>
       </c>
       <c r="C8">
-        <v>7.9439246555608229E-5</v>
+        <v>8.3464395030727041E-5</v>
       </c>
       <c r="D8">
-        <v>1.4630717909722766E-2</v>
+        <v>1.3609295693762048E-2</v>
       </c>
       <c r="E8">
-        <v>3.0562545252001144E-4</v>
+        <v>3.2056368105849665E-4</v>
       </c>
       <c r="F8">
-        <v>3.7374184934738522E-3</v>
+        <v>3.9107531607040823E-3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.2784081150215831E-2</v>
+        <v>2.3862791101617174E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.065745362676039E-4</v>
+        <v>2.1705384038132899E-4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1558,19 +1558,19 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>8.3369342099632749E-3</v>
+        <v>8.8594202719729735E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.2231639728979685E-2</v>
+        <v>4.6396580776156479E-3</v>
       </c>
       <c r="E9">
-        <v>2.7309801207014219E-4</v>
+        <v>2.7702963305892303E-4</v>
       </c>
       <c r="F9">
-        <v>1.4222015397543999E-2</v>
+        <v>1.5020694948785909E-2</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.7906288585801549E-2</v>
+        <v>1.7262198776788137E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.9049626966034049E-4</v>
+        <v>5.2137109394246749E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
